--- a/biology/Botanique/Récolteuse_de_pommes_de_terre/Récolteuse_de_pommes_de_terre.xlsx
+++ b/biology/Botanique/Récolteuse_de_pommes_de_terre/Récolteuse_de_pommes_de_terre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9colteuse_de_pommes_de_terre</t>
+          <t>Récolteuse_de_pommes_de_terre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une récolteuse de pommes de terre est une machine agricole utilisée pour récolter les pommes de terre. Il s'agit souvent de machines combinées, arracheuses-chargeuses, assurant successivement l'arrachage des tubercules, leur nettoyage pour éliminer les pierres, mottes de terre, fanes et mauvaise herbes, et leur chargement dans une benne en vue du transport. Elles peuvent être tractées ou automotrices et traiter un ou plusieurs rangs simultanément.  
 L'arracheuse de pommes de terre, apparue dans le deuxième moitié du XIXe siècle, fut la première étape de la mécanisation de la culture des pommes de terre, précédée par l'apparition de charrues spécialisées, dépourvues de coutre et dont le soc-buttoir est équipé de versoirs à grille pour séparer les tubercules de la terre.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9colteuse_de_pommes_de_terre</t>
+          <t>Récolteuse_de_pommes_de_terre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fonctionnement de l'arracheuse de pomme de terre est divisé en 5 postes:
 1. L'effanage
